--- a/biology/Médecine/Métacarpe/Métacarpe.xlsx
+++ b/biology/Médecine/Métacarpe/Métacarpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpe</t>
+          <t>Métacarpe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métacarpe chez les tétrapodes est la région anatomique qui relie le carpe aux doigts.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpe</t>
+          <t>Métacarpe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'humain, le métacarpe est constitué de cinq métacarpiens.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpe</t>
+          <t>Métacarpe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre de métacarpiens est variable d'une espèces à l'autre.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpe</t>
+          <t>Métacarpe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Lésion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de leur vie, 2,5 % des êtres humains auront au moins une fracture d'un métacarpe. La fracture de Benett (base du pouce) est la plus fréquente[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de leur vie, 2,5 % des êtres humains auront au moins une fracture d'un métacarpe. La fracture de Benett (base du pouce) est la plus fréquente.
 </t>
         </is>
       </c>
